--- a/pred_ohlcv/54_21/2020-01-19 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 REP ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>876.016048636621</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>474.787148636621</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>81.97074863662101</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1.178548636621031</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-11366.13261549181</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-11360.22621549181</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-11360.22621549181</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-11042.80781549181</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-11042.80781549181</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-11042.80781549181</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-10832.09781549181</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-10873.32371549181</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-10872.07371549181</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-10873.15551549181</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-11089.24001549181</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-11073.42861549181</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-11100.71191549181</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-11099.32131549181</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-11099.32131549181</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-11100.37131549181</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-11163.33941549181</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-11173.33941549181</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-11157.52321549181</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-11224.35321549181</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-11197.36511549181</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-11222.78511549181</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-11404.52371549181</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-11991.68451549181</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-11981.77901549181</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-11133.53261549181</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-10981.99741549181</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-10981.99741549181</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-11590.42121549181</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-11349.46161549181</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-11264.58871549181</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-11262.05051549181</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-11581.76991549181</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-11586.22111549181</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-11358.52223778321</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-10887.63213778321</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-11246.47413778321</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-11266.17613778321</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-11266.17613778321</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-11266.17613778321</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-11263.32453778321</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-11320.43213778321</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-11320.43213778321</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-11220.43213778321</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-11232.05823778321</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-11082.36243778321</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-11075.96653778321</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-11075.96653778321</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-11336.21192790667</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-11336.21192790667</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-11445.14602790667</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-11445.14602790667</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-11461.13892790667</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-11228.69942790667</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-10941.22852790667</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-10951.91242790667</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-10855.31452790667</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-10855.31452790667</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-10755.31452790667</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-10873.33552790667</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-10710.00468650381</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-10832.53878650381</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-10062.37959638036</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-11110.59869638036</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-11181.12709638036</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-11120.76079638036</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-11238.72219638036</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-11238.72219638036</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-11238.72219638036</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-11047.55689638036</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-11047.55689638036</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-10978.13889638036</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-10979.25869638036</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-10979.25869638036</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-11007.25869638036</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-11007.25869638036</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-11261.87129638036</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-11168.90209638036</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-11168.90209638036</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-11180.33579638036</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-11107.68019638036</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-11155.26869638036</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-11155.26869638036</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-11209.66349638036</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-11209.66349638036</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-11215.04929638036</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-11247.56539638036</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-11557.46749260677</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-11532.23039260677</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-11479.30159260677</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-11442.97439260677</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-11442.97439260677</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-11442.97439260677</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-11446.54329260678</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-11450.11219260678</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-11450.11219260678</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-11479.00599260678</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-11263.76739260677</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-11183.76739260677</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-11256.08139260677</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-11328.45889260678</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-11328.45889260678</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-11322.76479260677</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-11275.87399260678</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-11275.87399260678</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-11275.87399260678</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-11275.87399260678</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-11425.40459260678</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-11421.59459260678</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-11421.59459260678</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-11421.59459260678</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-11377.00459260678</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-11377.00459260678</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-11473.68409260678</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-11466.64149260678</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-11416.96809260678</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-11424.01069260678</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-11369.73859260678</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-11381.79719260678</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-10880.16786079985</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-10910.83764531997</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-11071.50974531997</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-11071.50974531997</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-11071.20858817711</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-11071.12338817711</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-11107.37638817711</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-11107.29378817711</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-11364.61898817711</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-11365.83538817711</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-11365.83538817711</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-11356.82998817711</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 REP ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>1234.920048636621</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1.178548636621031</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2175.773431583188</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2175.773431583188</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2175.773431583188</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2175.773431583188</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2189.041231583188</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2198.780931583188</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2198.780931583188</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2071.825131583188</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2067.502731583188</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2580.012731583188</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2685.042531583188</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3344.200331583188</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-3577.127231583187</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3577.127231583187</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3599.062131583188</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-3577.866231583188</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-3433.164331583188</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-3507.630331583187</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-4139.797631583187</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-4770.014931583188</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-4705.007131583187</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1238.563331583187</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1254.980031583187</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1185.807231583187</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>443.199246594621</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>426.873246594621</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>426.873246594621</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-102.8035285652987</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-116.3671285652987</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1327.701528565299</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1257.453528565299</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1415.053028565299</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1172.253728565299</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1290.453328565299</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1408.653028565299</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1397.302928565299</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1397.302928565299</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1356.536528565299</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1195.976828565299</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1184.976828565299</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1192.976828565299</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1226.995028565299</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1192.944728565299</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1190.980028565299</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1172.383828565299</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1172.383828565299</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1167.371748423873</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1102.136348423873</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1102.136348423873</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1068.637048423873</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1035.251694902746</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1093.647294902746</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-839.7177949027462</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-789.6449949027461</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-821.4245949027461</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-814.3009949027461</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-816.3009949027461</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-816.2009949027461</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-813.6632949027461</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-796.2727985115936</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-758.8046985115935</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-692.8754985115935</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-640.1549985115935</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-629.3437985115935</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-319.1594985115935</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-815.9550985115934</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-774.9381985115934</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-774.9381985115934</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-506.2835985115934</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-423.0279606019889</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-569.0800606019889</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-766.2096606019888</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-772.2840606019888</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-788.4099606019888</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-888.7627606019888</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-888.7627606019888</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-886.8520606019888</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-628.8822606019887</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-628.8822606019887</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-680.8856606019888</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-684.7653606019887</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-688.5922606019888</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-695.6010606019887</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-703.9122606019887</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-718.2186606019887</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-728.3552606019888</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-739.1664606019888</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-739.1664606019888</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-760.8228606019887</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-738.3103606019887</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-724.3103606019887</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-367.2440053840988</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-357.4375053840988</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-410.5807053840988</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-436.0987053840988</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-436.0987053840988</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-461.7835053840988</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-461.7835053840988</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-540.1456053840989</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-537.6245053840988</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-379.8978053840988</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-334.6799053840988</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-380.2753053840988</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-321.2274745970618</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-268.6794745970618</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-252.7356745970618</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-351.3455745970618</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-351.3455745970618</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-388.8136745970618</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-388.8136745970618</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-388.8136745970618</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-449.5136745970618</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-467.6312745970617</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-490.6320745970618</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-492.4989745970618</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-554.4181745970618</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-609.6787745970618</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-574.7886745970618</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-584.7536745970618</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-689.2661745970619</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-687.6986745970619</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-621.1354119506918</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-631.6630119506918</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-646.3864119506918</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-724.9784119506918</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-724.9784119506918</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-788.7225119506918</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-881.6899119506918</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-881.6899119506918</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-881.6899119506918</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-915.9004119506918</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-881.9614119506919</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-883.9005119506919</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-859.8413119506919</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-732.0118119506919</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-732.0118119506919</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-732.0118119506919</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-724.955911950692</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-724.955911950692</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-844.455911950692</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-963.2627119506919</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-963.2627119506919</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-937.3811119506919</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-937.3811119506919</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1142.006011950692</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1142.006011950692</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1051.926711950692</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1032.666011950692</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1169.785311950692</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1119.785311950692</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1030.028611950692</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-940.6126396502224</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1086.867939650222</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1083.933639650222</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1015.256088427871</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1004.209988427871</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1004.209988427871</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-997.4790163348475</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1028.721116334847</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1027.721116334847</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1034.933216334847</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1034.933216334847</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1148.621516334847</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1151.542077082511</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1151.542077082511</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1163.588177082511</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1175.425077082511</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1178.117577082511</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1159.973577082511</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1222.520377082511</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1222.520377082511</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1328.504577082511</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1512.742677082511</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1983.527277082511</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1997.559177082511</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1994.347277082511</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1994.347277082511</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1997.297277082511</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2067.931977082511</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2017.884977082511</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-2122.978077082511</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2533.223977082511</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2523.223977082511</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2523.223977082511</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-2523.223977082511</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-2533.180477082511</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-2531.120577082511</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2452.451377082511</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2502.883177082511</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2502.883177082511</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2502.883177082511</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2450.863177082511</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2258.958577082511</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2265.120577082511</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-2265.120577082511</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2034.483077082511</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-2037.415577082511</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-2035.945577082511</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2035.945577082511</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2035.899677082511</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2038.698477082511</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2038.698477082511</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2465.688477082511</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-3369.156577082511</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-3365.779977082511</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-3365.779977082511</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-3702.561677082511</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-3701.581677082511</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-3701.611677082511</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-3700.094777082511</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-3748.336877082511</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-3745.086877082511</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-3745.086877082511</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-3745.086877082511</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-3751.206977082511</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-3751.206977082511</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-3706.490277082511</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-3730.490277082511</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-3730.490277082511</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-3830.180277082511</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-3830.180277082511</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-3830.180277082511</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-3821.893877082511</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-3821.893877082511</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3821.893877082511</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-3823.103577082511</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-3823.103577082511</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-4342.407377082511</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-4342.407377082511</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-4342.407377082511</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-4370.417477082511</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-4521.703477082511</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-4186.675777082512</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-4186.675777082512</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-4202.668677082512</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-4197.553877082511</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-4155.102977082512</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-4155.102977082512</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-4155.102977082512</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-4155.102977082512</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-4300.316577082512</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-4358.831277082511</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-5774.845877082511</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-5909.985877082511</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-7045.994177082512</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-7045.994177082512</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-10832.09781549181</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-10872.07371549181</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-10873.15551549181</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-11089.24001549181</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-11073.42861549181</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-11100.71191549181</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-11099.32131549181</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-11099.32131549181</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-11100.37131549181</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-11163.33941549181</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-11173.33941549181</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-11157.52321549181</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-11224.35321549181</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-11197.36511549181</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-11222.78511549181</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-11404.52371549181</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-11991.68451549181</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-11981.77901549181</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-11951.65451549181</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-11770.27291549181</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-11770.27291549181</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-11799.40911549181</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-11886.46541549181</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-11381.61771549181</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-11133.53261549181</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-11133.53261549181</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-11133.53261549181</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-10968.04501549181</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-10824.34461549181</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-10981.99741549181</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-10981.99741549181</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-11590.42121549181</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-11349.46161549181</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-11264.58871549181</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-11267.30661549181</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-11262.05051549181</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-11581.76991549181</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-11586.22111549181</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-11254.63813778321</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-11073.99332790667</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-11080.87012790667</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-11111.77172790667</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-11165.94902790667</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-11165.94902790667</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-11120.76079638036</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-11238.72219638036</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-11238.72219638036</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-11238.72219638036</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-11047.55689638036</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-11047.55689638036</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-10978.13889638036</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-10979.25869638036</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-10979.25869638036</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-11007.25869638036</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-11007.25869638036</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-11261.87129638036</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-11168.90209638036</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-11168.90209638036</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-11180.33579638036</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-11107.68019638036</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-11155.26869638036</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-11155.26869638036</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-11107.37638817711</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-11364.61898817711</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-11365.83538817711</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
